--- a/Projects/MONDELEZDMIUS/Data/MondelezDMI_KPITemplatev2.xlsx
+++ b/Projects/MONDELEZDMIUS/Data/MondelezDMI_KPITemplatev2.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rifkabernstein/Documents/PS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VictoriaJosiah\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13105DE2-2D6B-224A-8AB5-1E9681E46848}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C166A1-1328-48B5-8B2A-1340726F3ADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11780" yWindow="460" windowWidth="20800" windowHeight="12540" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VTW_POINTS" sheetId="1" r:id="rId1"/>
     <sheet name="GOLD_ZONE" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -26,62 +32,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
-  <si>
-    <t>display</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>multiple</t>
   </si>
   <si>
-    <t>1/2 Pallet</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
-    <t>1/4 Pallet</t>
-  </si>
-  <si>
-    <t>3-sided End Cap</t>
-  </si>
-  <si>
     <t>Aisle Stack</t>
   </si>
   <si>
-    <t>Category Fixture</t>
-  </si>
-  <si>
-    <t>Clip Strip</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
-    <t>Dump Bins</t>
-  </si>
-  <si>
-    <t>Endcap</t>
-  </si>
-  <si>
-    <t>Pallet / Pallet Ready Display</t>
-  </si>
-  <si>
     <t>Power Wing</t>
   </si>
   <si>
-    <t>Seasonal Aisle</t>
-  </si>
-  <si>
     <t>Shelving Rack</t>
   </si>
   <si>
-    <t>Shipper / Hutch</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -92,6 +62,63 @@
   </si>
   <si>
     <t>Gold Zone End Cap</t>
+  </si>
+  <si>
+    <t>Nilla Banana Outpost</t>
+  </si>
+  <si>
+    <t>WALMART - Oreo Dairy Fixture</t>
+  </si>
+  <si>
+    <t>3-Sided End Cap</t>
+  </si>
+  <si>
+    <t>4x8 Nabisco Fixture</t>
+  </si>
+  <si>
+    <t>End Cap</t>
+  </si>
+  <si>
+    <t>4x4 Nabisco Fixture</t>
+  </si>
+  <si>
+    <t>Dump Bin Fixture</t>
+  </si>
+  <si>
+    <t>WALMART - Pick Pack Snack</t>
+  </si>
+  <si>
+    <t>Pallet - Full - PRD</t>
+  </si>
+  <si>
+    <t>Pallet - 1/2 - PRD</t>
+  </si>
+  <si>
+    <t>2x4 Nabisco Fixture</t>
+  </si>
+  <si>
+    <t>Shippers/Hutch</t>
+  </si>
+  <si>
+    <t>In Aisle</t>
+  </si>
+  <si>
+    <t>Dump Bin - Cardboard</t>
+  </si>
+  <si>
+    <t>Pallet 1/4 - PRD</t>
+  </si>
+  <si>
+    <t>Bunker Buddy</t>
+  </si>
+  <si>
+    <t>Clip strip</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Display</t>
   </si>
 </sst>
 </file>
@@ -445,181 +472,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125"/>
-    <col min="2" max="2" width="5.6640625"/>
-    <col min="3" max="3" width="15"/>
-    <col min="4" max="4" width="8.5"/>
-    <col min="5" max="5" width="28.83203125"/>
+    <col min="1" max="1" width="28.08984375" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>10</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -635,30 +733,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625"/>
-    <col min="2" max="1025" width="8.5"/>
+    <col min="1" max="1" width="17.6328125"/>
+    <col min="2" max="1025" width="8.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MONDELEZDMIUS/Data/MondelezDMI_KPITemplatev2.xlsx
+++ b/Projects/MONDELEZDMIUS/Data/MondelezDMI_KPITemplatev2.xlsx
@@ -56,6 +56,9 @@
     <t xml:space="preserve">Pallet - Full - PRD</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pallet - 1/2 - PRD</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Shippers/Hutch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">Shelving Rack</t>
@@ -208,17 +208,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44:N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,12 +306,12 @@
         <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>8</v>
@@ -322,7 +322,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>8</v>
@@ -333,7 +333,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>8</v>
@@ -344,13 +344,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,6 +452,19 @@
         <v>4</v>
       </c>
     </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -471,13 +484,13 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A44:N54 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/MONDELEZDMIUS/Data/MondelezDMI_KPITemplatev2.xlsx
+++ b/Projects/MONDELEZDMIUS/Data/MondelezDMI_KPITemplatev2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t xml:space="preserve">display</t>
   </si>
@@ -38,10 +38,10 @@
     <t xml:space="preserve">n</t>
   </si>
   <si>
-    <t xml:space="preserve">4x8 Nabisco Fixture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Cap</t>
+    <t xml:space="preserve">4x8 Nabisco fixture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endcap</t>
   </si>
   <si>
     <t xml:space="preserve">4x4 Nabisco Fixture</t>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">Clip strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category fixture</t>
   </si>
   <si>
     <t xml:space="preserve">location</t>
@@ -210,15 +213,14 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44:N54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,6 +451,17 @@
         <v>2</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -484,33 +497,33 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A44:N54 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
